--- a/public/TestData.xlsx
+++ b/public/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jialin\Documents\GitHub\quest\frontend\src\routes\students\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jialin\Documents\GitHub\quest\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60708AB-E42E-4D04-B69D-3179E01CB745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44407E4-2A2B-4C52-A93C-B00B1908979E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8B374D6A-B95B-45EE-AB9E-B7DA1D552B95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Tom</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>jerry@u.nus.edu</t>
+  </si>
+  <si>
+    <t>invalid gender</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>wannasleep@u.nus.edu</t>
   </si>
 </sst>
 </file>
@@ -430,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9EF0B2-5EC9-47FD-B438-F43473A088C9}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -505,10 +514,31 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36589</v>
+      </c>
+      <c r="D4">
+        <v>91234567</v>
+      </c>
+      <c r="E4">
+        <v>81234567</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{31EC52F9-C57A-4EAA-BF95-A134C9A837F3}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{1F257833-3EB3-490C-A109-9CECCF5FBB45}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{773A479C-477A-4708-8784-19CA6FF3B9DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/TestData.xlsx
+++ b/public/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jialin\Documents\GitHub\quest\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44407E4-2A2B-4C52-A93C-B00B1908979E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F514F86-ACDB-4314-BF37-E6594A2990EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8B374D6A-B95B-45EE-AB9E-B7DA1D552B95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Tom</t>
   </si>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>wannasleep@u.nus.edu</t>
+  </si>
+  <si>
+    <t>invalid phone</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>hehe@u.nus.edu</t>
+  </si>
+  <si>
+    <t>invalid email</t>
+  </si>
+  <si>
+    <t>I'm hungry</t>
+  </si>
+  <si>
+    <t>duplicate student</t>
+  </si>
+  <si>
+    <t>ok@u.nus.edu</t>
+  </si>
+  <si>
+    <t>empty student</t>
+  </si>
+  <si>
+    <t>noname@u.nus.edu</t>
   </si>
 </sst>
 </file>
@@ -439,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9EF0B2-5EC9-47FD-B438-F43473A088C9}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,11 +561,105 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42099</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>456</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42130</v>
+      </c>
+      <c r="D6">
+        <v>91234567</v>
+      </c>
+      <c r="E6">
+        <v>81234567</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42528</v>
+      </c>
+      <c r="D7">
+        <v>91234567</v>
+      </c>
+      <c r="E7">
+        <v>81234567</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42528</v>
+      </c>
+      <c r="D8">
+        <v>91234567</v>
+      </c>
+      <c r="E8">
+        <v>81234567</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{31EC52F9-C57A-4EAA-BF95-A134C9A837F3}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{1F257833-3EB3-490C-A109-9CECCF5FBB45}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{773A479C-477A-4708-8784-19CA6FF3B9DA}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{203C05A8-562B-40C9-989D-716FA888E979}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{A6B9C553-4B84-452A-BA18-18CB4D16CA18}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{530B7F07-1C69-403E-ACD5-E8CE04D06AE1}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{9FD65597-4023-472E-AA5B-6C6A34C66ADE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
